--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3326186666666667</v>
+        <v>0.1575256666666667</v>
       </c>
       <c r="N2">
-        <v>0.9978560000000001</v>
+        <v>0.472577</v>
       </c>
       <c r="O2">
-        <v>0.3213922220876632</v>
+        <v>0.6985926944284299</v>
       </c>
       <c r="P2">
-        <v>0.3213922220876632</v>
+        <v>0.69859269442843</v>
       </c>
       <c r="Q2">
-        <v>7.267640920881778</v>
+        <v>0.9776067027268889</v>
       </c>
       <c r="R2">
-        <v>65.40876828793601</v>
+        <v>8.798460324542001</v>
       </c>
       <c r="S2">
-        <v>0.01613395026261823</v>
+        <v>0.01049093444484894</v>
       </c>
       <c r="T2">
-        <v>0.01613395026261823</v>
+        <v>0.01049093444484894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,46 +596,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.702312</v>
+        <v>0.06796433333333333</v>
       </c>
       <c r="N3">
-        <v>2.106936</v>
+        <v>0.203893</v>
       </c>
       <c r="O3">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="P3">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="Q3">
-        <v>15.345354731824</v>
+        <v>0.4217876947864445</v>
       </c>
       <c r="R3">
-        <v>138.108192586416</v>
+        <v>3.796089253078</v>
       </c>
       <c r="S3">
-        <v>0.0340662386461772</v>
+        <v>0.004526305970801761</v>
       </c>
       <c r="T3">
-        <v>0.0340662386461772</v>
+        <v>0.004526305970801761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>1155.157411</v>
       </c>
       <c r="I4">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J4">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3326186666666667</v>
+        <v>0.1575256666666667</v>
       </c>
       <c r="N4">
-        <v>0.9978560000000001</v>
+        <v>0.472577</v>
       </c>
       <c r="O4">
-        <v>0.3213922220876632</v>
+        <v>0.6985926944284299</v>
       </c>
       <c r="P4">
-        <v>0.3213922220876632</v>
+        <v>0.69859269442843</v>
       </c>
       <c r="Q4">
-        <v>128.0756392789796</v>
+        <v>60.65564709090523</v>
       </c>
       <c r="R4">
-        <v>1152.680753510816</v>
+        <v>545.900823818147</v>
       </c>
       <c r="S4">
-        <v>0.2843241729297461</v>
+        <v>0.6509104485122885</v>
       </c>
       <c r="T4">
-        <v>0.2843241729297461</v>
+        <v>0.6509104485122885</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.702312</v>
+        <v>0.06796433333333333</v>
       </c>
       <c r="N5">
-        <v>2.106936</v>
+        <v>0.203893</v>
       </c>
       <c r="O5">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="P5">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="Q5">
-        <v>270.4269705447441</v>
+        <v>26.16983444455811</v>
       </c>
       <c r="R5">
-        <v>2433.842734902697</v>
+        <v>235.528510001023</v>
       </c>
       <c r="S5">
-        <v>0.6003399644997951</v>
+        <v>0.2808348355474686</v>
       </c>
       <c r="T5">
-        <v>0.6003399644997951</v>
+        <v>0.2808348355474685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H6">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I6">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J6">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3326186666666667</v>
+        <v>0.1575256666666667</v>
       </c>
       <c r="N6">
-        <v>0.9978560000000001</v>
+        <v>0.472577</v>
       </c>
       <c r="O6">
-        <v>0.3213922220876632</v>
+        <v>0.6985926944284299</v>
       </c>
       <c r="P6">
-        <v>0.3213922220876632</v>
+        <v>0.69859269442843</v>
       </c>
       <c r="Q6">
-        <v>9.429898524341333</v>
+        <v>3.465704181898778</v>
       </c>
       <c r="R6">
-        <v>84.869086719072</v>
+        <v>31.191337637089</v>
       </c>
       <c r="S6">
-        <v>0.02093409889529887</v>
+        <v>0.03719131147129241</v>
       </c>
       <c r="T6">
-        <v>0.02093409889529887</v>
+        <v>0.03719131147129241</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H7">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I7">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J7">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.702312</v>
+        <v>0.06796433333333333</v>
       </c>
       <c r="N7">
-        <v>2.106936</v>
+        <v>0.203893</v>
       </c>
       <c r="O7">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="P7">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="Q7">
-        <v>19.910881607448</v>
+        <v>1.495275527077889</v>
       </c>
       <c r="R7">
-        <v>179.197934467032</v>
+        <v>13.457479743701</v>
       </c>
       <c r="S7">
-        <v>0.0442015747663645</v>
+        <v>0.01604616405329972</v>
       </c>
       <c r="T7">
-        <v>0.0442015747663645</v>
+        <v>0.01604616405329972</v>
       </c>
     </row>
   </sheetData>
